--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>109133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16516</v>
+      </c>
       <c r="D2" t="n">
-        <v>1277516</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>1428340</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1379463</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24269</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28285</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1168810</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48877</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26704</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4076</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>178117</v>
+      </c>
+      <c r="C3" t="n">
+        <v>93908</v>
+      </c>
       <c r="D3" t="n">
-        <v>1266593</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>1609801</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1477961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47832</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33229</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1202007</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131840</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24710</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4703</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>161612</v>
+      </c>
+      <c r="C4" t="n">
+        <v>104708</v>
+      </c>
       <c r="D4" t="n">
-        <v>1160346</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>1647464</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1500815</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45828</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25664</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36835</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1243877</v>
+      </c>
+      <c r="J4" t="n">
+        <v>146649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23834</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5106</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61367</v>
+        <v>118271</v>
       </c>
       <c r="C5" t="n">
-        <v>7102</v>
+        <v>61199</v>
       </c>
       <c r="D5" t="n">
-        <v>1132458</v>
+        <v>1611903</v>
       </c>
       <c r="E5" t="n">
-        <v>1114469</v>
+        <v>1500618</v>
       </c>
       <c r="F5" t="n">
-        <v>37056</v>
+        <v>47657</v>
       </c>
       <c r="G5" t="n">
-        <v>24509</v>
+        <v>26829</v>
       </c>
       <c r="H5" t="n">
-        <v>9694</v>
+        <v>44207</v>
       </c>
       <c r="I5" t="n">
-        <v>955643</v>
+        <v>1283427</v>
       </c>
       <c r="J5" t="n">
-        <v>17989</v>
+        <v>111285</v>
       </c>
       <c r="K5" t="n">
-        <v>35894</v>
+        <v>24434</v>
       </c>
       <c r="L5" t="n">
-        <v>1193</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60711</v>
+        <v>124887</v>
       </c>
       <c r="C6" t="n">
-        <v>8207</v>
+        <v>27785</v>
       </c>
       <c r="D6" t="n">
-        <v>1159437</v>
+        <v>1618904</v>
       </c>
       <c r="E6" t="n">
-        <v>1139108</v>
+        <v>1534452</v>
       </c>
       <c r="F6" t="n">
-        <v>40429</v>
+        <v>50076</v>
       </c>
       <c r="G6" t="n">
-        <v>23014</v>
+        <v>27674</v>
       </c>
       <c r="H6" t="n">
-        <v>10773</v>
+        <v>50185</v>
       </c>
       <c r="I6" t="n">
-        <v>983272</v>
+        <v>1307242</v>
       </c>
       <c r="J6" t="n">
-        <v>20329</v>
+        <v>84452</v>
       </c>
       <c r="K6" t="n">
-        <v>31682</v>
+        <v>24573</v>
       </c>
       <c r="L6" t="n">
-        <v>1349</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66717</v>
+        <v>135604</v>
       </c>
       <c r="C7" t="n">
-        <v>10421</v>
+        <v>34632</v>
       </c>
       <c r="D7" t="n">
-        <v>1215776</v>
+        <v>1733299</v>
       </c>
       <c r="E7" t="n">
-        <v>1191390</v>
+        <v>1639659</v>
       </c>
       <c r="F7" t="n">
-        <v>44763</v>
+        <v>55583</v>
       </c>
       <c r="G7" t="n">
-        <v>24149</v>
+        <v>31678</v>
       </c>
       <c r="H7" t="n">
-        <v>12314</v>
+        <v>52851</v>
       </c>
       <c r="I7" t="n">
-        <v>1026535</v>
+        <v>1390873</v>
       </c>
       <c r="J7" t="n">
-        <v>24386</v>
+        <v>93640</v>
       </c>
       <c r="K7" t="n">
-        <v>29226</v>
+        <v>25921</v>
       </c>
       <c r="L7" t="n">
-        <v>1651</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80802</v>
+        <v>134025</v>
       </c>
       <c r="C8" t="n">
-        <v>11475</v>
+        <v>39485</v>
       </c>
       <c r="D8" t="n">
-        <v>1320636</v>
+        <v>1752052</v>
       </c>
       <c r="E8" t="n">
-        <v>1287253</v>
+        <v>1650444</v>
       </c>
       <c r="F8" t="n">
-        <v>48916</v>
+        <v>59356</v>
       </c>
       <c r="G8" t="n">
-        <v>27030</v>
+        <v>34803</v>
       </c>
       <c r="H8" t="n">
-        <v>19534</v>
+        <v>56118</v>
       </c>
       <c r="I8" t="n">
-        <v>1100871</v>
+        <v>1396834</v>
       </c>
       <c r="J8" t="n">
-        <v>33383</v>
+        <v>101608</v>
       </c>
       <c r="K8" t="n">
-        <v>29634</v>
+        <v>25426</v>
       </c>
       <c r="L8" t="n">
-        <v>2374</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95193</v>
+        <v>139618</v>
       </c>
       <c r="C9" t="n">
-        <v>12445</v>
+        <v>53148</v>
       </c>
       <c r="D9" t="n">
-        <v>1380762</v>
+        <v>1830023</v>
       </c>
       <c r="E9" t="n">
-        <v>1342726</v>
+        <v>1708629</v>
       </c>
       <c r="F9" t="n">
-        <v>49567</v>
+        <v>6087</v>
       </c>
       <c r="G9" t="n">
-        <v>25668</v>
+        <v>98773</v>
       </c>
       <c r="H9" t="n">
-        <v>22302</v>
+        <v>59449</v>
       </c>
       <c r="I9" t="n">
-        <v>1143267</v>
+        <v>1432578</v>
       </c>
       <c r="J9" t="n">
-        <v>38036</v>
+        <v>118716</v>
       </c>
       <c r="K9" t="n">
-        <v>29031</v>
+        <v>25942</v>
       </c>
       <c r="L9" t="n">
-        <v>3289</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109133</v>
+        <v>143230</v>
       </c>
       <c r="C10" t="n">
-        <v>16516</v>
+        <v>65350</v>
       </c>
       <c r="D10" t="n">
-        <v>1428340</v>
+        <v>1814441</v>
       </c>
       <c r="E10" t="n">
-        <v>1379463</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50547</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24269</v>
-      </c>
+        <v>1672841</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>28285</v>
+        <v>68191</v>
       </c>
       <c r="I10" t="n">
-        <v>1168810</v>
+        <v>1384426</v>
       </c>
       <c r="J10" t="n">
-        <v>48877</v>
+        <v>140012</v>
       </c>
       <c r="K10" t="n">
-        <v>26704</v>
+        <v>25579</v>
       </c>
       <c r="L10" t="n">
-        <v>4076</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178117</v>
+        <v>149034</v>
       </c>
       <c r="C11" t="n">
-        <v>93908</v>
+        <v>70047</v>
       </c>
       <c r="D11" t="n">
-        <v>1609801</v>
+        <v>1850377</v>
       </c>
       <c r="E11" t="n">
-        <v>1477961</v>
-      </c>
-      <c r="F11" t="n">
-        <v>47832</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25295</v>
-      </c>
+        <v>1704228</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>33229</v>
+        <v>67737</v>
       </c>
       <c r="I11" t="n">
-        <v>1202007</v>
+        <v>1389595</v>
       </c>
       <c r="J11" t="n">
-        <v>131840</v>
+        <v>144826</v>
       </c>
       <c r="K11" t="n">
-        <v>24710</v>
+        <v>26394</v>
       </c>
       <c r="L11" t="n">
-        <v>4703</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>161612</v>
+        <v>136705</v>
       </c>
       <c r="C12" t="n">
-        <v>104708</v>
+        <v>62436</v>
       </c>
       <c r="D12" t="n">
-        <v>1647464</v>
+        <v>1649393</v>
       </c>
       <c r="E12" t="n">
-        <v>1500815</v>
-      </c>
-      <c r="F12" t="n">
-        <v>45828</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25664</v>
-      </c>
+        <v>1527166</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>36835</v>
+        <v>52600</v>
       </c>
       <c r="I12" t="n">
-        <v>1243877</v>
+        <v>1241694</v>
       </c>
       <c r="J12" t="n">
-        <v>146649</v>
+        <v>121078</v>
       </c>
       <c r="K12" t="n">
-        <v>23834</v>
+        <v>21619</v>
       </c>
       <c r="L12" t="n">
-        <v>5106</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118271</v>
+        <v>147246</v>
       </c>
       <c r="C13" t="n">
-        <v>61199</v>
+        <v>61370</v>
       </c>
       <c r="D13" t="n">
-        <v>1611903</v>
+        <v>1830655</v>
       </c>
       <c r="E13" t="n">
-        <v>1500618</v>
-      </c>
-      <c r="F13" t="n">
-        <v>47657</v>
-      </c>
-      <c r="G13" t="n">
-        <v>26829</v>
-      </c>
+        <v>1709455</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>44207</v>
+        <v>50365</v>
       </c>
       <c r="I13" t="n">
-        <v>1283427</v>
+        <v>1394548</v>
       </c>
       <c r="J13" t="n">
-        <v>111285</v>
+        <v>119057</v>
       </c>
       <c r="K13" t="n">
-        <v>24434</v>
+        <v>23196</v>
       </c>
       <c r="L13" t="n">
-        <v>5879</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>124887</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27785</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1618904</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1534452</v>
-      </c>
-      <c r="F14" t="n">
-        <v>50076</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27674</v>
-      </c>
-      <c r="H14" t="n">
-        <v>50185</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1307242</v>
-      </c>
-      <c r="J14" t="n">
-        <v>84452</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24573</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6482</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>135604</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34632</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1733299</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1639659</v>
-      </c>
-      <c r="F15" t="n">
-        <v>55583</v>
-      </c>
-      <c r="G15" t="n">
-        <v>31678</v>
-      </c>
-      <c r="H15" t="n">
-        <v>52851</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1390873</v>
-      </c>
-      <c r="J15" t="n">
-        <v>93640</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25921</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6157</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>134025</v>
-      </c>
-      <c r="C16" t="n">
-        <v>39485</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1752052</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1650444</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59356</v>
-      </c>
-      <c r="G16" t="n">
-        <v>34803</v>
-      </c>
-      <c r="H16" t="n">
-        <v>56118</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1396834</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101608</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25426</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>139618</v>
-      </c>
-      <c r="C17" t="n">
-        <v>53148</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1830023</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1708629</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6087</v>
-      </c>
-      <c r="G17" t="n">
-        <v>98773</v>
-      </c>
-      <c r="H17" t="n">
-        <v>59449</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1432578</v>
-      </c>
-      <c r="J17" t="n">
-        <v>118716</v>
-      </c>
-      <c r="K17" t="n">
-        <v>25942</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6119</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>143230</v>
-      </c>
-      <c r="C18" t="n">
-        <v>65350</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1814441</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1672841</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>68191</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1384426</v>
-      </c>
-      <c r="J18" t="n">
-        <v>140012</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25579</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6471</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>149034</v>
-      </c>
-      <c r="C19" t="n">
-        <v>70047</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1850377</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1704228</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>67737</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1389595</v>
-      </c>
-      <c r="J19" t="n">
-        <v>144826</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26394</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7042</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>136705</v>
-      </c>
-      <c r="C20" t="n">
-        <v>62436</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1649393</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1527166</v>
-      </c>
-      <c r="F20" t="n">
-        <v>118224</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>52600</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1241694</v>
-      </c>
-      <c r="J20" t="n">
-        <v>121078</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21619</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6042</v>
+        <v>7322</v>
       </c>
     </row>
   </sheetData>
